--- a/Code/Results/Cases/Case_1_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01311591568699</v>
+        <v>1.045513250922339</v>
       </c>
       <c r="D2">
-        <v>1.036785574462076</v>
+        <v>1.040251481188331</v>
       </c>
       <c r="E2">
-        <v>1.026093091709044</v>
+        <v>1.052680320673988</v>
       </c>
       <c r="F2">
-        <v>1.033481245763657</v>
+        <v>1.062165316521385</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05441797156728</v>
+        <v>1.043723007886286</v>
       </c>
       <c r="J2">
-        <v>1.034911285939925</v>
+        <v>1.050572583938902</v>
       </c>
       <c r="K2">
-        <v>1.04775515500431</v>
+        <v>1.043034359155837</v>
       </c>
       <c r="L2">
-        <v>1.037200493977825</v>
+        <v>1.055428383217968</v>
       </c>
       <c r="M2">
-        <v>1.044493037108675</v>
+        <v>1.064887403489241</v>
       </c>
       <c r="N2">
-        <v>1.015014434817324</v>
+        <v>1.020656839099321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018573937101295</v>
+        <v>1.046645007966449</v>
       </c>
       <c r="D3">
-        <v>1.039631597653024</v>
+        <v>1.040827656938864</v>
       </c>
       <c r="E3">
-        <v>1.030739760109925</v>
+        <v>1.053694190668258</v>
       </c>
       <c r="F3">
-        <v>1.038560471410487</v>
+        <v>1.063280929839654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056158352721085</v>
+        <v>1.044007418449745</v>
       </c>
       <c r="J3">
-        <v>1.038570753425581</v>
+        <v>1.051351133773937</v>
       </c>
       <c r="K3">
-        <v>1.049781304970844</v>
+        <v>1.043421536742855</v>
       </c>
       <c r="L3">
-        <v>1.04099386612773</v>
+        <v>1.05625463157037</v>
       </c>
       <c r="M3">
-        <v>1.048722637666318</v>
+        <v>1.065817022792727</v>
       </c>
       <c r="N3">
-        <v>1.016275139091201</v>
+        <v>1.02092107119124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022023582281561</v>
+        <v>1.047377291019806</v>
       </c>
       <c r="D4">
-        <v>1.041434669104071</v>
+        <v>1.041200406318878</v>
       </c>
       <c r="E4">
-        <v>1.03368257658496</v>
+        <v>1.054350542399773</v>
       </c>
       <c r="F4">
-        <v>1.041777529264173</v>
+        <v>1.064003232890437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05724772480354</v>
+        <v>1.044190058981392</v>
       </c>
       <c r="J4">
-        <v>1.040880221125645</v>
+        <v>1.051854315161417</v>
       </c>
       <c r="K4">
-        <v>1.05105746743422</v>
+        <v>1.043671290471317</v>
       </c>
       <c r="L4">
-        <v>1.043390792625267</v>
+        <v>1.056788969377763</v>
       </c>
       <c r="M4">
-        <v>1.051396585770768</v>
+        <v>1.066418383711259</v>
       </c>
       <c r="N4">
-        <v>1.017070218363649</v>
+        <v>1.021091707733694</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023454987541514</v>
+        <v>1.047685134220924</v>
       </c>
       <c r="D5">
-        <v>1.042183757888242</v>
+        <v>1.041357091188284</v>
       </c>
       <c r="E5">
-        <v>1.034905055883323</v>
+        <v>1.054626547031366</v>
       </c>
       <c r="F5">
-        <v>1.043114009555252</v>
+        <v>1.064306991477714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057697148941821</v>
+        <v>1.044266507616425</v>
       </c>
       <c r="J5">
-        <v>1.041837650771624</v>
+        <v>1.052065711033369</v>
       </c>
       <c r="K5">
-        <v>1.051585862586174</v>
+        <v>1.043776100594398</v>
       </c>
       <c r="L5">
-        <v>1.044385186899896</v>
+        <v>1.057013533325176</v>
       </c>
       <c r="M5">
-        <v>1.052506238170567</v>
+        <v>1.066671156559228</v>
       </c>
       <c r="N5">
-        <v>1.017399692984459</v>
+        <v>1.021163362090687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02369424576335</v>
+        <v>1.047736821969628</v>
       </c>
       <c r="D6">
-        <v>1.042309018206269</v>
+        <v>1.041383398124286</v>
       </c>
       <c r="E6">
-        <v>1.035109471852406</v>
+        <v>1.05467289378821</v>
       </c>
       <c r="F6">
-        <v>1.043337492906477</v>
+        <v>1.06435799989223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057772115117837</v>
+        <v>1.0442793241204</v>
       </c>
       <c r="J6">
-        <v>1.04199763213593</v>
+        <v>1.052101197034991</v>
       </c>
       <c r="K6">
-        <v>1.051674114253273</v>
+        <v>1.043793687731758</v>
       </c>
       <c r="L6">
-        <v>1.044551386403385</v>
+        <v>1.057051234402859</v>
       </c>
       <c r="M6">
-        <v>1.052691721075731</v>
+        <v>1.066713595935048</v>
       </c>
       <c r="N6">
-        <v>1.017454737990843</v>
+        <v>1.021175388407698</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022042781711541</v>
+        <v>1.047381404468432</v>
       </c>
       <c r="D7">
-        <v>1.041444713146909</v>
+        <v>1.041202500025643</v>
       </c>
       <c r="E7">
-        <v>1.033698968311195</v>
+        <v>1.0543542300948</v>
       </c>
       <c r="F7">
-        <v>1.041795449265681</v>
+        <v>1.064007291324934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057253763291082</v>
+        <v>1.044191081802216</v>
       </c>
       <c r="J7">
-        <v>1.04089306660763</v>
+        <v>1.051857140399429</v>
       </c>
       <c r="K7">
-        <v>1.051064559397021</v>
+        <v>1.04367269168222</v>
       </c>
       <c r="L7">
-        <v>1.04340413125356</v>
+        <v>1.056791970293592</v>
       </c>
       <c r="M7">
-        <v>1.051411469135997</v>
+        <v>1.066421761428524</v>
       </c>
       <c r="N7">
-        <v>1.017074639365548</v>
+        <v>1.021092665501983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014977980027229</v>
+        <v>1.045895742187765</v>
       </c>
       <c r="D8">
-        <v>1.037755554172002</v>
+        <v>1.04044621735228</v>
       </c>
       <c r="E8">
-        <v>1.027677065059588</v>
+        <v>1.053022898670718</v>
       </c>
       <c r="F8">
-        <v>1.0352126133045</v>
+        <v>1.062542255077288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055013913706389</v>
+        <v>1.043819413915175</v>
       </c>
       <c r="J8">
-        <v>1.036160448036688</v>
+        <v>1.050835821310672</v>
       </c>
       <c r="K8">
-        <v>1.048447281507296</v>
+        <v>1.04316536799061</v>
       </c>
       <c r="L8">
-        <v>1.038494742614045</v>
+        <v>1.055707679971465</v>
       </c>
       <c r="M8">
-        <v>1.04593583145893</v>
+        <v>1.065201606958359</v>
       </c>
       <c r="N8">
-        <v>1.015444886094423</v>
+        <v>1.020746207813086</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001860869942825</v>
+        <v>1.043277475217691</v>
       </c>
       <c r="D9">
-        <v>1.03094587286429</v>
+        <v>1.039113023245888</v>
       </c>
       <c r="E9">
-        <v>1.016546828883791</v>
+        <v>1.050679290499605</v>
       </c>
       <c r="F9">
-        <v>1.023047619542891</v>
+        <v>1.059963929902448</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050773095505439</v>
+        <v>1.043153832746422</v>
       </c>
       <c r="J9">
-        <v>1.027348086794802</v>
+        <v>1.049031578068876</v>
       </c>
       <c r="K9">
-        <v>1.043556062691993</v>
+        <v>1.042265479270973</v>
       </c>
       <c r="L9">
-        <v>1.029377030941519</v>
+        <v>1.053794714549351</v>
       </c>
       <c r="M9">
-        <v>1.035777513633257</v>
+        <v>1.063050266079249</v>
       </c>
       <c r="N9">
-        <v>1.012406262394647</v>
+        <v>1.020133107162723</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9926070802227843</v>
+        <v>1.041531679032901</v>
       </c>
       <c r="D10">
-        <v>1.026177214536599</v>
+        <v>1.03822393334716</v>
       </c>
       <c r="E10">
-        <v>1.008733170383717</v>
+        <v>1.049118464666362</v>
       </c>
       <c r="F10">
-        <v>1.014508393918193</v>
+        <v>1.058247216080013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047729680455023</v>
+        <v>1.042702956454404</v>
       </c>
       <c r="J10">
-        <v>1.021117117821653</v>
+        <v>1.047825672698186</v>
       </c>
       <c r="K10">
-        <v>1.040089386843928</v>
+        <v>1.041661604842483</v>
       </c>
       <c r="L10">
-        <v>1.022946514915315</v>
+        <v>1.052517838103132</v>
       </c>
       <c r="M10">
-        <v>1.028620544346652</v>
+        <v>1.061615166727257</v>
       </c>
       <c r="N10">
-        <v>1.010255666105697</v>
+        <v>1.019722626498925</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884644705412596</v>
+        <v>1.040775649095648</v>
       </c>
       <c r="D11">
-        <v>1.024052841716792</v>
+        <v>1.037838890373765</v>
       </c>
       <c r="E11">
-        <v>1.005245398537997</v>
+        <v>1.048442980795152</v>
       </c>
       <c r="F11">
-        <v>1.010696834597137</v>
+        <v>1.057504369330996</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046355966586143</v>
+        <v>1.042506026119915</v>
       </c>
       <c r="J11">
-        <v>1.018325141720555</v>
+        <v>1.047302767747851</v>
       </c>
       <c r="K11">
-        <v>1.038534978165014</v>
+        <v>1.041399190216527</v>
       </c>
       <c r="L11">
-        <v>1.020069067672249</v>
+        <v>1.051964560898552</v>
       </c>
       <c r="M11">
-        <v>1.025419804864221</v>
+        <v>1.06099354147093</v>
       </c>
       <c r="N11">
-        <v>1.009291673778763</v>
+        <v>1.0195444691228</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9869039401646642</v>
+        <v>1.040494811336653</v>
       </c>
       <c r="D12">
-        <v>1.023254328288545</v>
+        <v>1.037695860043416</v>
       </c>
       <c r="E12">
-        <v>1.003933164104022</v>
+        <v>1.048192130271864</v>
       </c>
       <c r="F12">
-        <v>1.009262780526366</v>
+        <v>1.057228517773229</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04583687888422</v>
+        <v>1.042432622364169</v>
       </c>
       <c r="J12">
-        <v>1.017273079459508</v>
+        <v>1.047108425873236</v>
       </c>
       <c r="K12">
-        <v>1.037949173039676</v>
+        <v>1.041301578015719</v>
       </c>
       <c r="L12">
-        <v>1.018985396853185</v>
+        <v>1.051758991371984</v>
       </c>
       <c r="M12">
-        <v>1.024214646158819</v>
+        <v>1.060762608957348</v>
       </c>
       <c r="N12">
-        <v>1.008928385183054</v>
+        <v>1.01947823088684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9872396887021893</v>
+        <v>1.040555052669151</v>
       </c>
       <c r="D13">
-        <v>1.023426046947764</v>
+        <v>1.037726540891619</v>
       </c>
       <c r="E13">
-        <v>1.00421541709086</v>
+        <v>1.048245936112025</v>
       </c>
       <c r="F13">
-        <v>1.009571236215921</v>
+        <v>1.057287685493068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045948631837782</v>
+        <v>1.042448379260493</v>
       </c>
       <c r="J13">
-        <v>1.017499444171355</v>
+        <v>1.047150117927823</v>
       </c>
       <c r="K13">
-        <v>1.038075218745121</v>
+        <v>1.041322522479798</v>
       </c>
       <c r="L13">
-        <v>1.019218535420868</v>
+        <v>1.051803089353356</v>
       </c>
       <c r="M13">
-        <v>1.024473909308324</v>
+        <v>1.060812146276523</v>
       </c>
       <c r="N13">
-        <v>1.009006553018217</v>
+        <v>1.019492442049721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.988335929471686</v>
+        <v>1.040752435263535</v>
       </c>
       <c r="D14">
-        <v>1.023987031600685</v>
+        <v>1.03782706760429</v>
       </c>
       <c r="E14">
-        <v>1.005137276228589</v>
+        <v>1.04842224430818</v>
       </c>
       <c r="F14">
-        <v>1.010578674917843</v>
+        <v>1.057481565832577</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046313241375581</v>
+        <v>1.042499963745551</v>
       </c>
       <c r="J14">
-        <v>1.018238489284625</v>
+        <v>1.047286705669411</v>
       </c>
       <c r="K14">
-        <v>1.038486729815444</v>
+        <v>1.041391124409312</v>
       </c>
       <c r="L14">
-        <v>1.019979799627709</v>
+        <v>1.051947569637837</v>
       </c>
       <c r="M14">
-        <v>1.025320523760368</v>
+        <v>1.060974453197791</v>
       </c>
       <c r="N14">
-        <v>1.009261752495697</v>
+        <v>1.019538995128104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.98900842945032</v>
+        <v>1.040874047225068</v>
       </c>
       <c r="D15">
-        <v>1.024331408420236</v>
+        <v>1.0378890043685</v>
       </c>
       <c r="E15">
-        <v>1.005703015949381</v>
+        <v>1.048530880784242</v>
       </c>
       <c r="F15">
-        <v>1.011196934228334</v>
+        <v>1.057601031803293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046536705851081</v>
+        <v>1.04253171285218</v>
       </c>
       <c r="J15">
-        <v>1.01869182414727</v>
+        <v>1.047370847068833</v>
       </c>
       <c r="K15">
-        <v>1.038739145389423</v>
+        <v>1.041433373820748</v>
       </c>
       <c r="L15">
-        <v>1.020446842830515</v>
+        <v>1.052036581045051</v>
       </c>
       <c r="M15">
-        <v>1.02583996534578</v>
+        <v>1.06107445143248</v>
       </c>
       <c r="N15">
-        <v>1.0094182884789</v>
+        <v>1.019567669711662</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.992879036771844</v>
+        <v>1.0415818522745</v>
       </c>
       <c r="D16">
-        <v>1.026316907740491</v>
+        <v>1.038249486174792</v>
       </c>
       <c r="E16">
-        <v>1.008962356273223</v>
+        <v>1.049163301939228</v>
       </c>
       <c r="F16">
-        <v>1.014758857122933</v>
+        <v>1.058296526893165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047819635669193</v>
+        <v>1.042715990301629</v>
       </c>
       <c r="J16">
-        <v>1.02130035922772</v>
+        <v>1.047860360542806</v>
       </c>
       <c r="K16">
-        <v>1.040191389606804</v>
+        <v>1.041679000817944</v>
       </c>
       <c r="L16">
-        <v>1.023135448335974</v>
+        <v>1.052554549217096</v>
       </c>
       <c r="M16">
-        <v>1.028830742040423</v>
+        <v>1.061656417317626</v>
       </c>
       <c r="N16">
-        <v>1.01031892802392</v>
+        <v>1.01973444143495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9952696972685579</v>
+        <v>1.042025815056229</v>
       </c>
       <c r="D17">
-        <v>1.027546095142494</v>
+        <v>1.038475591192474</v>
       </c>
       <c r="E17">
-        <v>1.010978198665453</v>
+        <v>1.04956010017806</v>
       </c>
       <c r="F17">
-        <v>1.016961855831097</v>
+        <v>1.058732926496984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04860912563425</v>
+        <v>1.042831128118052</v>
       </c>
       <c r="J17">
-        <v>1.022910875574799</v>
+        <v>1.04816722093421</v>
       </c>
       <c r="K17">
-        <v>1.041087785389509</v>
+        <v>1.0418328266687</v>
       </c>
       <c r="L17">
-        <v>1.024796439917822</v>
+        <v>1.052879354567235</v>
       </c>
       <c r="M17">
-        <v>1.030678877815313</v>
+        <v>1.062021410488486</v>
       </c>
       <c r="N17">
-        <v>1.010874901187406</v>
+        <v>1.019838941359744</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9966511409863898</v>
+        <v>1.042284762564613</v>
       </c>
       <c r="D18">
-        <v>1.028257352113346</v>
+        <v>1.038607468456547</v>
       </c>
       <c r="E18">
-        <v>1.012144006185046</v>
+        <v>1.049791581028332</v>
       </c>
       <c r="F18">
-        <v>1.018235908693833</v>
+        <v>1.058987519444251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049064259754617</v>
+        <v>1.042898122231141</v>
       </c>
       <c r="J18">
-        <v>1.023841263912495</v>
+        <v>1.048346136047852</v>
       </c>
       <c r="K18">
-        <v>1.041605523808957</v>
+        <v>1.041922460632689</v>
       </c>
       <c r="L18">
-        <v>1.025756359781567</v>
+        <v>1.053068771275608</v>
       </c>
       <c r="M18">
-        <v>1.031747119608053</v>
+        <v>1.06223428385205</v>
       </c>
       <c r="N18">
-        <v>1.011196050382976</v>
+        <v>1.019899854212801</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9971200150872658</v>
+        <v>1.042373055574568</v>
       </c>
       <c r="D19">
-        <v>1.028498918424787</v>
+        <v>1.038652434153929</v>
       </c>
       <c r="E19">
-        <v>1.012539850370318</v>
+        <v>1.049870515991414</v>
       </c>
       <c r="F19">
-        <v>1.018668508818477</v>
+        <v>1.059074337293835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049218551747419</v>
+        <v>1.042920937703463</v>
       </c>
       <c r="J19">
-        <v>1.024157001660322</v>
+        <v>1.048407129389819</v>
       </c>
       <c r="K19">
-        <v>1.041781203938543</v>
+        <v>1.041953008209891</v>
       </c>
       <c r="L19">
-        <v>1.026082182351706</v>
+        <v>1.053133351257391</v>
       </c>
       <c r="M19">
-        <v>1.032109737969331</v>
+        <v>1.062306864624827</v>
       </c>
       <c r="N19">
-        <v>1.011305029831789</v>
+        <v>1.019920617107704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9950145551621797</v>
+        <v>1.041978182936427</v>
       </c>
       <c r="D20">
-        <v>1.027414808679348</v>
+        <v>1.038451332874114</v>
       </c>
       <c r="E20">
-        <v>1.010762959319284</v>
+        <v>1.049517523849405</v>
       </c>
       <c r="F20">
-        <v>1.016726632259372</v>
+        <v>1.058686099942934</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048524978453411</v>
+        <v>1.042818791865125</v>
       </c>
       <c r="J20">
-        <v>1.022739019343554</v>
+        <v>1.048134305103139</v>
       </c>
       <c r="K20">
-        <v>1.04099214249166</v>
+        <v>1.041816331921926</v>
       </c>
       <c r="L20">
-        <v>1.024619158853521</v>
+        <v>1.0528445098322</v>
       </c>
       <c r="M20">
-        <v>1.030481605064575</v>
+        <v>1.061982252348793</v>
       </c>
       <c r="N20">
-        <v>1.010815577424681</v>
+        <v>1.019827733663806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.988013727013248</v>
+        <v>1.040694311421637</v>
       </c>
       <c r="D21">
-        <v>1.023822099928679</v>
+        <v>1.037797465212329</v>
       </c>
       <c r="E21">
-        <v>1.004866282022888</v>
+        <v>1.048370324444306</v>
       </c>
       <c r="F21">
-        <v>1.010282523367942</v>
+        <v>1.057424470844663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046206120337018</v>
+        <v>1.042484780441089</v>
       </c>
       <c r="J21">
-        <v>1.018021280450605</v>
+        <v>1.047246487071364</v>
       </c>
       <c r="K21">
-        <v>1.038365786269496</v>
+        <v>1.041370926704419</v>
       </c>
       <c r="L21">
-        <v>1.019756043987817</v>
+        <v>1.051905025392653</v>
       </c>
       <c r="M21">
-        <v>1.025071674090214</v>
+        <v>1.060926658775791</v>
       </c>
       <c r="N21">
-        <v>1.009186749182242</v>
+        <v>1.019525288136978</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.983485224492339</v>
+        <v>1.039887005477483</v>
       </c>
       <c r="D22">
-        <v>1.021508410518302</v>
+        <v>1.037386305541115</v>
       </c>
       <c r="E22">
-        <v>1.00106148643301</v>
+        <v>1.047649348379218</v>
       </c>
       <c r="F22">
-        <v>1.006124505074025</v>
+        <v>1.056631667044069</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044696837426505</v>
+        <v>1.042273298512085</v>
       </c>
       <c r="J22">
-        <v>1.014967779155588</v>
+        <v>1.046687634152747</v>
       </c>
       <c r="K22">
-        <v>1.036665493182257</v>
+        <v>1.041090074581962</v>
       </c>
       <c r="L22">
-        <v>1.016611944358103</v>
+        <v>1.051313999956198</v>
       </c>
       <c r="M22">
-        <v>1.021575602910347</v>
+        <v>1.060262772777685</v>
       </c>
       <c r="N22">
-        <v>1.008132279276345</v>
+        <v>1.019334766096443</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858983899369359</v>
+        <v>1.040314982106711</v>
       </c>
       <c r="D23">
-        <v>1.022740309321006</v>
+        <v>1.037604273208188</v>
       </c>
       <c r="E23">
-        <v>1.003088074977162</v>
+        <v>1.048031521837369</v>
       </c>
       <c r="F23">
-        <v>1.008339237703569</v>
+        <v>1.057051906534858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045501955936604</v>
+        <v>1.042385548951706</v>
       </c>
       <c r="J23">
-        <v>1.016595087260457</v>
+        <v>1.046983954112745</v>
       </c>
       <c r="K23">
-        <v>1.037571644439791</v>
+        <v>1.041239036063267</v>
       </c>
       <c r="L23">
-        <v>1.01828720427673</v>
+        <v>1.051627345561148</v>
       </c>
       <c r="M23">
-        <v>1.023438256033051</v>
+        <v>1.060614729712724</v>
       </c>
       <c r="N23">
-        <v>1.008694257234679</v>
+        <v>1.019435799823756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9951298829314854</v>
+        <v>1.041999705866848</v>
       </c>
       <c r="D24">
-        <v>1.027474148982651</v>
+        <v>1.0384622941825</v>
       </c>
       <c r="E24">
-        <v>1.010860247539581</v>
+        <v>1.049536762150818</v>
       </c>
       <c r="F24">
-        <v>1.016832953325505</v>
+        <v>1.05870725869715</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048563017480792</v>
+        <v>1.042824366592943</v>
       </c>
       <c r="J24">
-        <v>1.022816701520046</v>
+        <v>1.048149178570621</v>
       </c>
       <c r="K24">
-        <v>1.041035375173654</v>
+        <v>1.041823785466228</v>
       </c>
       <c r="L24">
-        <v>1.024699291999877</v>
+        <v>1.052860254781447</v>
       </c>
       <c r="M24">
-        <v>1.030570774170688</v>
+        <v>1.061999946291162</v>
       </c>
       <c r="N24">
-        <v>1.01084239296297</v>
+        <v>1.019832798063275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005336994876743</v>
+        <v>1.043954406086082</v>
       </c>
       <c r="D25">
-        <v>1.032745030659703</v>
+        <v>1.039457742090566</v>
       </c>
       <c r="E25">
-        <v>1.019490134590703</v>
+        <v>1.051284890051256</v>
       </c>
       <c r="F25">
-        <v>1.026264374346062</v>
+        <v>1.060630104919638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051906104145536</v>
+        <v>1.043327163236728</v>
       </c>
       <c r="J25">
-        <v>1.029686073166397</v>
+        <v>1.049498559102963</v>
       </c>
       <c r="K25">
-        <v>1.044855431928216</v>
+        <v>1.04249882032662</v>
       </c>
       <c r="L25">
-        <v>1.031793242006685</v>
+        <v>1.054289536917761</v>
       </c>
       <c r="M25">
-        <v>1.038468205913375</v>
+        <v>1.06360659177364</v>
       </c>
       <c r="N25">
-        <v>1.013212831794609</v>
+        <v>1.020291916261416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_157/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045513250922339</v>
+        <v>1.01311591568699</v>
       </c>
       <c r="D2">
-        <v>1.040251481188331</v>
+        <v>1.036785574462076</v>
       </c>
       <c r="E2">
-        <v>1.052680320673988</v>
+        <v>1.026093091709043</v>
       </c>
       <c r="F2">
-        <v>1.062165316521385</v>
+        <v>1.033481245763657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043723007886286</v>
+        <v>1.05441797156728</v>
       </c>
       <c r="J2">
-        <v>1.050572583938902</v>
+        <v>1.034911285939925</v>
       </c>
       <c r="K2">
-        <v>1.043034359155837</v>
+        <v>1.04775515500431</v>
       </c>
       <c r="L2">
-        <v>1.055428383217968</v>
+        <v>1.037200493977825</v>
       </c>
       <c r="M2">
-        <v>1.064887403489241</v>
+        <v>1.044493037108675</v>
       </c>
       <c r="N2">
-        <v>1.020656839099321</v>
+        <v>1.015014434817324</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046645007966449</v>
+        <v>1.018573937101294</v>
       </c>
       <c r="D3">
-        <v>1.040827656938864</v>
+        <v>1.039631597653023</v>
       </c>
       <c r="E3">
-        <v>1.053694190668258</v>
+        <v>1.030739760109925</v>
       </c>
       <c r="F3">
-        <v>1.063280929839654</v>
+        <v>1.038560471410487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044007418449745</v>
+        <v>1.056158352721085</v>
       </c>
       <c r="J3">
-        <v>1.051351133773937</v>
+        <v>1.03857075342558</v>
       </c>
       <c r="K3">
-        <v>1.043421536742855</v>
+        <v>1.049781304970844</v>
       </c>
       <c r="L3">
-        <v>1.05625463157037</v>
+        <v>1.04099386612773</v>
       </c>
       <c r="M3">
-        <v>1.065817022792727</v>
+        <v>1.048722637666319</v>
       </c>
       <c r="N3">
-        <v>1.02092107119124</v>
+        <v>1.016275139091201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047377291019806</v>
+        <v>1.022023582281562</v>
       </c>
       <c r="D4">
-        <v>1.041200406318878</v>
+        <v>1.041434669104071</v>
       </c>
       <c r="E4">
-        <v>1.054350542399773</v>
+        <v>1.03368257658496</v>
       </c>
       <c r="F4">
-        <v>1.064003232890437</v>
+        <v>1.041777529264174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044190058981392</v>
+        <v>1.05724772480354</v>
       </c>
       <c r="J4">
-        <v>1.051854315161417</v>
+        <v>1.040880221125645</v>
       </c>
       <c r="K4">
-        <v>1.043671290471317</v>
+        <v>1.05105746743422</v>
       </c>
       <c r="L4">
-        <v>1.056788969377763</v>
+        <v>1.043390792625268</v>
       </c>
       <c r="M4">
-        <v>1.066418383711259</v>
+        <v>1.051396585770769</v>
       </c>
       <c r="N4">
-        <v>1.021091707733694</v>
+        <v>1.01707021836365</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047685134220924</v>
+        <v>1.023454987541514</v>
       </c>
       <c r="D5">
-        <v>1.041357091188284</v>
+        <v>1.042183757888242</v>
       </c>
       <c r="E5">
-        <v>1.054626547031366</v>
+        <v>1.034905055883323</v>
       </c>
       <c r="F5">
-        <v>1.064306991477714</v>
+        <v>1.043114009555252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044266507616425</v>
+        <v>1.057697148941821</v>
       </c>
       <c r="J5">
-        <v>1.052065711033369</v>
+        <v>1.041837650771624</v>
       </c>
       <c r="K5">
-        <v>1.043776100594398</v>
+        <v>1.051585862586174</v>
       </c>
       <c r="L5">
-        <v>1.057013533325176</v>
+        <v>1.044385186899896</v>
       </c>
       <c r="M5">
-        <v>1.066671156559228</v>
+        <v>1.052506238170567</v>
       </c>
       <c r="N5">
-        <v>1.021163362090687</v>
+        <v>1.017399692984459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047736821969628</v>
+        <v>1.02369424576335</v>
       </c>
       <c r="D6">
-        <v>1.041383398124286</v>
+        <v>1.042309018206269</v>
       </c>
       <c r="E6">
-        <v>1.05467289378821</v>
+        <v>1.035109471852407</v>
       </c>
       <c r="F6">
-        <v>1.06435799989223</v>
+        <v>1.043337492906478</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0442793241204</v>
+        <v>1.057772115117837</v>
       </c>
       <c r="J6">
-        <v>1.052101197034991</v>
+        <v>1.041997632135931</v>
       </c>
       <c r="K6">
-        <v>1.043793687731758</v>
+        <v>1.051674114253273</v>
       </c>
       <c r="L6">
-        <v>1.057051234402859</v>
+        <v>1.044551386403386</v>
       </c>
       <c r="M6">
-        <v>1.066713595935048</v>
+        <v>1.052691721075731</v>
       </c>
       <c r="N6">
-        <v>1.021175388407698</v>
+        <v>1.017454737990843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047381404468432</v>
+        <v>1.02204278171154</v>
       </c>
       <c r="D7">
-        <v>1.041202500025643</v>
+        <v>1.041444713146909</v>
       </c>
       <c r="E7">
-        <v>1.0543542300948</v>
+        <v>1.033698968311195</v>
       </c>
       <c r="F7">
-        <v>1.064007291324934</v>
+        <v>1.04179544926568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044191081802216</v>
+        <v>1.057253763291082</v>
       </c>
       <c r="J7">
-        <v>1.051857140399429</v>
+        <v>1.04089306660763</v>
       </c>
       <c r="K7">
-        <v>1.04367269168222</v>
+        <v>1.051064559397021</v>
       </c>
       <c r="L7">
-        <v>1.056791970293592</v>
+        <v>1.04340413125356</v>
       </c>
       <c r="M7">
-        <v>1.066421761428524</v>
+        <v>1.051411469135997</v>
       </c>
       <c r="N7">
-        <v>1.021092665501983</v>
+        <v>1.017074639365548</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045895742187765</v>
+        <v>1.014977980027229</v>
       </c>
       <c r="D8">
-        <v>1.04044621735228</v>
+        <v>1.037755554172002</v>
       </c>
       <c r="E8">
-        <v>1.053022898670718</v>
+        <v>1.027677065059588</v>
       </c>
       <c r="F8">
-        <v>1.062542255077288</v>
+        <v>1.0352126133045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043819413915175</v>
+        <v>1.055013913706389</v>
       </c>
       <c r="J8">
-        <v>1.050835821310672</v>
+        <v>1.036160448036688</v>
       </c>
       <c r="K8">
-        <v>1.04316536799061</v>
+        <v>1.048447281507296</v>
       </c>
       <c r="L8">
-        <v>1.055707679971465</v>
+        <v>1.038494742614045</v>
       </c>
       <c r="M8">
-        <v>1.065201606958359</v>
+        <v>1.045935831458931</v>
       </c>
       <c r="N8">
-        <v>1.020746207813086</v>
+        <v>1.015444886094423</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043277475217691</v>
+        <v>1.001860869942824</v>
       </c>
       <c r="D9">
-        <v>1.039113023245888</v>
+        <v>1.030945872864289</v>
       </c>
       <c r="E9">
-        <v>1.050679290499605</v>
+        <v>1.016546828883791</v>
       </c>
       <c r="F9">
-        <v>1.059963929902448</v>
+        <v>1.023047619542891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043153832746422</v>
+        <v>1.050773095505439</v>
       </c>
       <c r="J9">
-        <v>1.049031578068876</v>
+        <v>1.027348086794801</v>
       </c>
       <c r="K9">
-        <v>1.042265479270973</v>
+        <v>1.043556062691992</v>
       </c>
       <c r="L9">
-        <v>1.053794714549351</v>
+        <v>1.029377030941519</v>
       </c>
       <c r="M9">
-        <v>1.063050266079249</v>
+        <v>1.035777513633257</v>
       </c>
       <c r="N9">
-        <v>1.020133107162723</v>
+        <v>1.012406262394647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041531679032901</v>
+        <v>0.9926070802227838</v>
       </c>
       <c r="D10">
-        <v>1.03822393334716</v>
+        <v>1.026177214536599</v>
       </c>
       <c r="E10">
-        <v>1.049118464666362</v>
+        <v>1.008733170383717</v>
       </c>
       <c r="F10">
-        <v>1.058247216080013</v>
+        <v>1.014508393918192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042702956454404</v>
+        <v>1.047729680455023</v>
       </c>
       <c r="J10">
-        <v>1.047825672698186</v>
+        <v>1.021117117821652</v>
       </c>
       <c r="K10">
-        <v>1.041661604842483</v>
+        <v>1.040089386843928</v>
       </c>
       <c r="L10">
-        <v>1.052517838103132</v>
+        <v>1.022946514915314</v>
       </c>
       <c r="M10">
-        <v>1.061615166727257</v>
+        <v>1.028620544346652</v>
       </c>
       <c r="N10">
-        <v>1.019722626498925</v>
+        <v>1.010255666105697</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040775649095648</v>
+        <v>0.9884644705412592</v>
       </c>
       <c r="D11">
-        <v>1.037838890373765</v>
+        <v>1.024052841716792</v>
       </c>
       <c r="E11">
-        <v>1.048442980795152</v>
+        <v>1.005245398537997</v>
       </c>
       <c r="F11">
-        <v>1.057504369330996</v>
+        <v>1.010696834597137</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042506026119915</v>
+        <v>1.046355966586143</v>
       </c>
       <c r="J11">
-        <v>1.047302767747851</v>
+        <v>1.018325141720555</v>
       </c>
       <c r="K11">
-        <v>1.041399190216527</v>
+        <v>1.038534978165014</v>
       </c>
       <c r="L11">
-        <v>1.051964560898552</v>
+        <v>1.020069067672248</v>
       </c>
       <c r="M11">
-        <v>1.06099354147093</v>
+        <v>1.025419804864221</v>
       </c>
       <c r="N11">
-        <v>1.0195444691228</v>
+        <v>1.009291673778763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040494811336653</v>
+        <v>0.9869039401646637</v>
       </c>
       <c r="D12">
-        <v>1.037695860043416</v>
+        <v>1.023254328288545</v>
       </c>
       <c r="E12">
-        <v>1.048192130271864</v>
+        <v>1.003933164104022</v>
       </c>
       <c r="F12">
-        <v>1.057228517773229</v>
+        <v>1.009262780526365</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042432622364169</v>
+        <v>1.04583687888422</v>
       </c>
       <c r="J12">
-        <v>1.047108425873236</v>
+        <v>1.017273079459507</v>
       </c>
       <c r="K12">
-        <v>1.041301578015719</v>
+        <v>1.037949173039676</v>
       </c>
       <c r="L12">
-        <v>1.051758991371984</v>
+        <v>1.018985396853184</v>
       </c>
       <c r="M12">
-        <v>1.060762608957348</v>
+        <v>1.024214646158818</v>
       </c>
       <c r="N12">
-        <v>1.01947823088684</v>
+        <v>1.008928385183054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040555052669151</v>
+        <v>0.9872396887021896</v>
       </c>
       <c r="D13">
-        <v>1.037726540891619</v>
+        <v>1.023426046947765</v>
       </c>
       <c r="E13">
-        <v>1.048245936112025</v>
+        <v>1.00421541709086</v>
       </c>
       <c r="F13">
-        <v>1.057287685493068</v>
+        <v>1.009571236215921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042448379260493</v>
+        <v>1.045948631837782</v>
       </c>
       <c r="J13">
-        <v>1.047150117927823</v>
+        <v>1.017499444171356</v>
       </c>
       <c r="K13">
-        <v>1.041322522479798</v>
+        <v>1.038075218745122</v>
       </c>
       <c r="L13">
-        <v>1.051803089353356</v>
+        <v>1.019218535420868</v>
       </c>
       <c r="M13">
-        <v>1.060812146276523</v>
+        <v>1.024473909308324</v>
       </c>
       <c r="N13">
-        <v>1.019492442049721</v>
+        <v>1.009006553018217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040752435263535</v>
+        <v>0.9883359294716857</v>
       </c>
       <c r="D14">
-        <v>1.03782706760429</v>
+        <v>1.023987031600684</v>
       </c>
       <c r="E14">
-        <v>1.04842224430818</v>
+        <v>1.005137276228589</v>
       </c>
       <c r="F14">
-        <v>1.057481565832577</v>
+        <v>1.010578674917842</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042499963745551</v>
+        <v>1.046313241375581</v>
       </c>
       <c r="J14">
-        <v>1.047286705669411</v>
+        <v>1.018238489284625</v>
       </c>
       <c r="K14">
-        <v>1.041391124409312</v>
+        <v>1.038486729815444</v>
       </c>
       <c r="L14">
-        <v>1.051947569637837</v>
+        <v>1.019979799627709</v>
       </c>
       <c r="M14">
-        <v>1.060974453197791</v>
+        <v>1.025320523760368</v>
       </c>
       <c r="N14">
-        <v>1.019538995128104</v>
+        <v>1.009261752495697</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040874047225068</v>
+        <v>0.9890084294503202</v>
       </c>
       <c r="D15">
-        <v>1.0378890043685</v>
+        <v>1.024331408420236</v>
       </c>
       <c r="E15">
-        <v>1.048530880784242</v>
+        <v>1.005703015949381</v>
       </c>
       <c r="F15">
-        <v>1.057601031803293</v>
+        <v>1.011196934228334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04253171285218</v>
+        <v>1.046536705851081</v>
       </c>
       <c r="J15">
-        <v>1.047370847068833</v>
+        <v>1.01869182414727</v>
       </c>
       <c r="K15">
-        <v>1.041433373820748</v>
+        <v>1.038739145389422</v>
       </c>
       <c r="L15">
-        <v>1.052036581045051</v>
+        <v>1.020446842830515</v>
       </c>
       <c r="M15">
-        <v>1.06107445143248</v>
+        <v>1.02583996534578</v>
       </c>
       <c r="N15">
-        <v>1.019567669711662</v>
+        <v>1.0094182884789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0415818522745</v>
+        <v>0.9928790367718441</v>
       </c>
       <c r="D16">
-        <v>1.038249486174792</v>
+        <v>1.026316907740491</v>
       </c>
       <c r="E16">
-        <v>1.049163301939228</v>
+        <v>1.008962356273223</v>
       </c>
       <c r="F16">
-        <v>1.058296526893165</v>
+        <v>1.014758857122933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042715990301629</v>
+        <v>1.047819635669193</v>
       </c>
       <c r="J16">
-        <v>1.047860360542806</v>
+        <v>1.02130035922772</v>
       </c>
       <c r="K16">
-        <v>1.041679000817944</v>
+        <v>1.040191389606805</v>
       </c>
       <c r="L16">
-        <v>1.052554549217096</v>
+        <v>1.023135448335973</v>
       </c>
       <c r="M16">
-        <v>1.061656417317626</v>
+        <v>1.028830742040423</v>
       </c>
       <c r="N16">
-        <v>1.01973444143495</v>
+        <v>1.01031892802392</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042025815056229</v>
+        <v>0.9952696972685581</v>
       </c>
       <c r="D17">
-        <v>1.038475591192474</v>
+        <v>1.027546095142494</v>
       </c>
       <c r="E17">
-        <v>1.04956010017806</v>
+        <v>1.010978198665454</v>
       </c>
       <c r="F17">
-        <v>1.058732926496984</v>
+        <v>1.016961855831097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042831128118052</v>
+        <v>1.04860912563425</v>
       </c>
       <c r="J17">
-        <v>1.04816722093421</v>
+        <v>1.0229108755748</v>
       </c>
       <c r="K17">
-        <v>1.0418328266687</v>
+        <v>1.041087785389509</v>
       </c>
       <c r="L17">
-        <v>1.052879354567235</v>
+        <v>1.024796439917822</v>
       </c>
       <c r="M17">
-        <v>1.062021410488486</v>
+        <v>1.030678877815313</v>
       </c>
       <c r="N17">
-        <v>1.019838941359744</v>
+        <v>1.010874901187406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042284762564613</v>
+        <v>0.9966511409863896</v>
       </c>
       <c r="D18">
-        <v>1.038607468456547</v>
+        <v>1.028257352113346</v>
       </c>
       <c r="E18">
-        <v>1.049791581028332</v>
+        <v>1.012144006185046</v>
       </c>
       <c r="F18">
-        <v>1.058987519444251</v>
+        <v>1.018235908693832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042898122231141</v>
+        <v>1.049064259754617</v>
       </c>
       <c r="J18">
-        <v>1.048346136047852</v>
+        <v>1.023841263912495</v>
       </c>
       <c r="K18">
-        <v>1.041922460632689</v>
+        <v>1.041605523808958</v>
       </c>
       <c r="L18">
-        <v>1.053068771275608</v>
+        <v>1.025756359781567</v>
       </c>
       <c r="M18">
-        <v>1.06223428385205</v>
+        <v>1.031747119608053</v>
       </c>
       <c r="N18">
-        <v>1.019899854212801</v>
+        <v>1.011196050382976</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042373055574568</v>
+        <v>0.997120015087265</v>
       </c>
       <c r="D19">
-        <v>1.038652434153929</v>
+        <v>1.028498918424787</v>
       </c>
       <c r="E19">
-        <v>1.049870515991414</v>
+        <v>1.012539850370318</v>
       </c>
       <c r="F19">
-        <v>1.059074337293835</v>
+        <v>1.018668508818476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042920937703463</v>
+        <v>1.049218551747418</v>
       </c>
       <c r="J19">
-        <v>1.048407129389819</v>
+        <v>1.024157001660321</v>
       </c>
       <c r="K19">
-        <v>1.041953008209891</v>
+        <v>1.041781203938542</v>
       </c>
       <c r="L19">
-        <v>1.053133351257391</v>
+        <v>1.026082182351705</v>
       </c>
       <c r="M19">
-        <v>1.062306864624827</v>
+        <v>1.03210973796933</v>
       </c>
       <c r="N19">
-        <v>1.019920617107704</v>
+        <v>1.011305029831789</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041978182936427</v>
+        <v>0.9950145551621787</v>
       </c>
       <c r="D20">
-        <v>1.038451332874114</v>
+        <v>1.027414808679348</v>
       </c>
       <c r="E20">
-        <v>1.049517523849405</v>
+        <v>1.010762959319283</v>
       </c>
       <c r="F20">
-        <v>1.058686099942934</v>
+        <v>1.016726632259372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042818791865125</v>
+        <v>1.04852497845341</v>
       </c>
       <c r="J20">
-        <v>1.048134305103139</v>
+        <v>1.022739019343553</v>
       </c>
       <c r="K20">
-        <v>1.041816331921926</v>
+        <v>1.04099214249166</v>
       </c>
       <c r="L20">
-        <v>1.0528445098322</v>
+        <v>1.02461915885352</v>
       </c>
       <c r="M20">
-        <v>1.061982252348793</v>
+        <v>1.030481605064574</v>
       </c>
       <c r="N20">
-        <v>1.019827733663806</v>
+        <v>1.01081557742468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040694311421637</v>
+        <v>0.9880137270132476</v>
       </c>
       <c r="D21">
-        <v>1.037797465212329</v>
+        <v>1.023822099928679</v>
       </c>
       <c r="E21">
-        <v>1.048370324444306</v>
+        <v>1.004866282022888</v>
       </c>
       <c r="F21">
-        <v>1.057424470844663</v>
+        <v>1.010282523367941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042484780441089</v>
+        <v>1.046206120337018</v>
       </c>
       <c r="J21">
-        <v>1.047246487071364</v>
+        <v>1.018021280450605</v>
       </c>
       <c r="K21">
-        <v>1.041370926704419</v>
+        <v>1.038365786269496</v>
       </c>
       <c r="L21">
-        <v>1.051905025392653</v>
+        <v>1.019756043987817</v>
       </c>
       <c r="M21">
-        <v>1.060926658775791</v>
+        <v>1.025071674090214</v>
       </c>
       <c r="N21">
-        <v>1.019525288136978</v>
+        <v>1.009186749182242</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039887005477483</v>
+        <v>0.9834852244923389</v>
       </c>
       <c r="D22">
-        <v>1.037386305541115</v>
+        <v>1.021508410518302</v>
       </c>
       <c r="E22">
-        <v>1.047649348379218</v>
+        <v>1.00106148643301</v>
       </c>
       <c r="F22">
-        <v>1.056631667044069</v>
+        <v>1.006124505074025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042273298512085</v>
+        <v>1.044696837426505</v>
       </c>
       <c r="J22">
-        <v>1.046687634152747</v>
+        <v>1.014967779155588</v>
       </c>
       <c r="K22">
-        <v>1.041090074581962</v>
+        <v>1.036665493182257</v>
       </c>
       <c r="L22">
-        <v>1.051313999956198</v>
+        <v>1.016611944358103</v>
       </c>
       <c r="M22">
-        <v>1.060262772777685</v>
+        <v>1.021575602910346</v>
       </c>
       <c r="N22">
-        <v>1.019334766096443</v>
+        <v>1.008132279276345</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040314982106711</v>
+        <v>0.9858983899369359</v>
       </c>
       <c r="D23">
-        <v>1.037604273208188</v>
+        <v>1.022740309321006</v>
       </c>
       <c r="E23">
-        <v>1.048031521837369</v>
+        <v>1.003088074977162</v>
       </c>
       <c r="F23">
-        <v>1.057051906534858</v>
+        <v>1.008339237703569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042385548951706</v>
+        <v>1.045501955936604</v>
       </c>
       <c r="J23">
-        <v>1.046983954112745</v>
+        <v>1.016595087260457</v>
       </c>
       <c r="K23">
-        <v>1.041239036063267</v>
+        <v>1.037571644439791</v>
       </c>
       <c r="L23">
-        <v>1.051627345561148</v>
+        <v>1.01828720427673</v>
       </c>
       <c r="M23">
-        <v>1.060614729712724</v>
+        <v>1.023438256033051</v>
       </c>
       <c r="N23">
-        <v>1.019435799823756</v>
+        <v>1.008694257234679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041999705866848</v>
+        <v>0.9951298829314845</v>
       </c>
       <c r="D24">
-        <v>1.0384622941825</v>
+        <v>1.027474148982651</v>
       </c>
       <c r="E24">
-        <v>1.049536762150818</v>
+        <v>1.01086024753958</v>
       </c>
       <c r="F24">
-        <v>1.05870725869715</v>
+        <v>1.016832953325504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042824366592943</v>
+        <v>1.048563017480792</v>
       </c>
       <c r="J24">
-        <v>1.048149178570621</v>
+        <v>1.022816701520046</v>
       </c>
       <c r="K24">
-        <v>1.041823785466228</v>
+        <v>1.041035375173653</v>
       </c>
       <c r="L24">
-        <v>1.052860254781447</v>
+        <v>1.024699291999876</v>
       </c>
       <c r="M24">
-        <v>1.061999946291162</v>
+        <v>1.030570774170687</v>
       </c>
       <c r="N24">
-        <v>1.019832798063275</v>
+        <v>1.01084239296297</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043954406086082</v>
+        <v>1.005336994876743</v>
       </c>
       <c r="D25">
-        <v>1.039457742090566</v>
+        <v>1.032745030659704</v>
       </c>
       <c r="E25">
-        <v>1.051284890051256</v>
+        <v>1.019490134590703</v>
       </c>
       <c r="F25">
-        <v>1.060630104919638</v>
+        <v>1.026264374346061</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043327163236728</v>
+        <v>1.051906104145536</v>
       </c>
       <c r="J25">
-        <v>1.049498559102963</v>
+        <v>1.029686073166396</v>
       </c>
       <c r="K25">
-        <v>1.04249882032662</v>
+        <v>1.044855431928216</v>
       </c>
       <c r="L25">
-        <v>1.054289536917761</v>
+        <v>1.031793242006684</v>
       </c>
       <c r="M25">
-        <v>1.06360659177364</v>
+        <v>1.038468205913375</v>
       </c>
       <c r="N25">
-        <v>1.020291916261416</v>
+        <v>1.013212831794608</v>
       </c>
     </row>
   </sheetData>
